--- a/procedure/EC2サーバーの構築手順.xlsx
+++ b/procedure/EC2サーバーの構築手順.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hayashibitsuki/Documents/learn-myself-aws/learnAWS/procedure/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B4DCC8B-D838-5E48-A8FF-7434E649993F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F66A284-E1EE-F645-8FEE-4BEFCF89C6C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6540" yWindow="2320" windowWidth="28300" windowHeight="17440" xr2:uid="{36B41A8F-C570-7149-9358-A69D459262D5}"/>
   </bookViews>
@@ -109,16 +109,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ssh -i "[秘密鍵の場所]/***.pem" ec2-user@ec2-[ipアドレス].us-east-2.compute.amazonaws.com</t>
-    <rPh sb="9" eb="12">
-      <t>ヒミテゥ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>バセィオ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t xml:space="preserve">   セキュリティグループの設定はssh接続するために必須</t>
     <rPh sb="14" eb="16">
       <t>セッテイ</t>
@@ -132,16 +122,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>①秘密鍵をダウンロードして、任意の場所に配置</t>
-    <rPh sb="1" eb="4">
-      <t>ヒミテゥ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ニンイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>●EC2インスタンスの作成と起動</t>
     <rPh sb="11" eb="13">
       <t>サクセイ</t>
@@ -197,6 +177,26 @@
     </rPh>
     <rPh sb="32" eb="34">
       <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>①秘密鍵を作成・ダウンロードして、任意の場所に配置</t>
+    <rPh sb="1" eb="4">
+      <t>ヒミテゥ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ニンイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ssh -i "[秘密鍵のフルパス]/***.pem" ec2-user@ec2-[ipアドレス].us-east-2.compute.amazonaws.com</t>
+    <rPh sb="9" eb="12">
+      <t>ヒミテゥ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -640,7 +640,7 @@
   <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.5703125" defaultRowHeight="18"/>
@@ -667,7 +667,7 @@
     </row>
     <row r="3" spans="1:13">
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -697,7 +697,7 @@
     </row>
     <row r="12" spans="1:13">
       <c r="B12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -717,45 +717,45 @@
     </row>
     <row r="19" spans="2:14">
       <c r="B19" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="2:14">
       <c r="B21" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="2:14">
       <c r="B22" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="2:14">
       <c r="B23" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="2:14">
       <c r="B24" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="2:14">
       <c r="B25" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="2:14">
       <c r="B26" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="2:14">
       <c r="B28" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="2:14">
@@ -765,7 +765,7 @@
     </row>
     <row r="30" spans="2:14">
       <c r="B30" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
